--- a/120_COFs/Generated COFs Structure Parameters.xlsx
+++ b/120_COFs/Generated COFs Structure Parameters.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="结构参数-提供" sheetId="8" r:id="rId1"/>
+    <sheet name="sheet" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118:E119"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
